--- a/output/ETHUSDT_1_2020_12_2025.xlsx
+++ b/output/ETHUSDT_1_2020_12_2025.xlsx
@@ -591,12 +591,12 @@
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
           <t>month</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>year</t>
         </is>
       </c>
     </row>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="AE2" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF2" t="n">
         <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="3">
@@ -778,10 +778,10 @@
         </is>
       </c>
       <c r="AE3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF3" t="n">
         <v>2</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="4">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="AE4" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF4" t="n">
         <v>3</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="5">
@@ -978,10 +978,10 @@
         </is>
       </c>
       <c r="AE5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF5" t="n">
         <v>4</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="6">
@@ -1080,10 +1080,10 @@
         </is>
       </c>
       <c r="AE6" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF6" t="n">
         <v>5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="7">
@@ -1182,10 +1182,10 @@
         </is>
       </c>
       <c r="AE7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF7" t="n">
         <v>6</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="8">
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="AE8" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF8" t="n">
         <v>7</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="9">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="AE9" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF9" t="n">
         <v>8</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="10">
@@ -1482,10 +1482,10 @@
         </is>
       </c>
       <c r="AE10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF10" t="n">
         <v>9</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="11">
@@ -1580,10 +1580,10 @@
         </is>
       </c>
       <c r="AE11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF11" t="n">
         <v>10</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="12">
@@ -1682,10 +1682,10 @@
         </is>
       </c>
       <c r="AE12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF12" t="n">
         <v>11</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="13">
@@ -1784,10 +1784,10 @@
         </is>
       </c>
       <c r="AE13" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF13" t="n">
         <v>12</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>2020</v>
       </c>
     </row>
     <row r="14">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="AE14" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF14" t="n">
         <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="15">
@@ -1970,10 +1970,10 @@
         </is>
       </c>
       <c r="AE15" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF15" t="n">
         <v>2</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="16">
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="AE16" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF16" t="n">
         <v>3</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="17">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="AE17" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF17" t="n">
         <v>4</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="18">
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="AE18" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF18" t="n">
         <v>5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="19">
@@ -2370,10 +2370,10 @@
         </is>
       </c>
       <c r="AE19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF19" t="n">
         <v>6</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="20">
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="AE20" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF20" t="n">
         <v>7</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="21">
@@ -2572,10 +2572,10 @@
         </is>
       </c>
       <c r="AE21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF21" t="n">
         <v>8</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="22">
@@ -2674,10 +2674,10 @@
         </is>
       </c>
       <c r="AE22" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF22" t="n">
         <v>9</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="23">
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="AE23" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF23" t="n">
         <v>10</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="24">
@@ -2876,10 +2876,10 @@
         </is>
       </c>
       <c r="AE24" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF24" t="n">
         <v>11</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="25">
@@ -2978,10 +2978,10 @@
         </is>
       </c>
       <c r="AE25" t="n">
+        <v>2021</v>
+      </c>
+      <c r="AF25" t="n">
         <v>12</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>2021</v>
       </c>
     </row>
     <row r="26">
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="AE26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF26" t="n">
         <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="27">
@@ -3164,10 +3164,10 @@
         </is>
       </c>
       <c r="AE27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF27" t="n">
         <v>2</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="28">
@@ -3262,10 +3262,10 @@
         </is>
       </c>
       <c r="AE28" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF28" t="n">
         <v>3</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="29">
@@ -3364,10 +3364,10 @@
         </is>
       </c>
       <c r="AE29" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF29" t="n">
         <v>4</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="30">
@@ -3466,10 +3466,10 @@
         </is>
       </c>
       <c r="AE30" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF30" t="n">
         <v>5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="31">
@@ -3568,10 +3568,10 @@
         </is>
       </c>
       <c r="AE31" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF31" t="n">
         <v>6</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="32">
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="AE32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF32" t="n">
         <v>7</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="33">
@@ -3766,10 +3766,10 @@
         </is>
       </c>
       <c r="AE33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF33" t="n">
         <v>8</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="34">
@@ -3868,10 +3868,10 @@
         </is>
       </c>
       <c r="AE34" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF34" t="n">
         <v>9</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="35">
@@ -3952,10 +3952,10 @@
         </is>
       </c>
       <c r="AE35" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF35" t="n">
         <v>10</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="36">
@@ -4054,10 +4054,10 @@
         </is>
       </c>
       <c r="AE36" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF36" t="n">
         <v>11</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="37">
@@ -4154,10 +4154,10 @@
         </is>
       </c>
       <c r="AE37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="AF37" t="n">
         <v>12</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>2022</v>
       </c>
     </row>
     <row r="38">
@@ -4254,10 +4254,10 @@
         </is>
       </c>
       <c r="AE38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF38" t="n">
         <v>1</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="39">
@@ -4356,10 +4356,10 @@
         </is>
       </c>
       <c r="AE39" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF39" t="n">
         <v>2</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="40">
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="AE40" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF40" t="n">
         <v>3</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="41">
@@ -4542,10 +4542,10 @@
         </is>
       </c>
       <c r="AE41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF41" t="n">
         <v>4</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="42">
@@ -4644,10 +4644,10 @@
         </is>
       </c>
       <c r="AE42" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF42" t="n">
         <v>5</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="43">
@@ -4746,10 +4746,10 @@
         </is>
       </c>
       <c r="AE43" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF43" t="n">
         <v>6</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="44">
@@ -4846,10 +4846,10 @@
         </is>
       </c>
       <c r="AE44" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF44" t="n">
         <v>7</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="45">
@@ -4948,10 +4948,10 @@
         </is>
       </c>
       <c r="AE45" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF45" t="n">
         <v>8</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="46">
@@ -5046,10 +5046,10 @@
         </is>
       </c>
       <c r="AE46" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF46" t="n">
         <v>9</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="47">
@@ -5148,10 +5148,10 @@
         </is>
       </c>
       <c r="AE47" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF47" t="n">
         <v>10</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="48">
@@ -5250,10 +5250,10 @@
         </is>
       </c>
       <c r="AE48" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF48" t="n">
         <v>11</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="49">
@@ -5350,10 +5350,10 @@
         </is>
       </c>
       <c r="AE49" t="n">
+        <v>2023</v>
+      </c>
+      <c r="AF49" t="n">
         <v>12</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>2023</v>
       </c>
     </row>
     <row r="50">
@@ -5452,10 +5452,10 @@
         </is>
       </c>
       <c r="AE50" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF50" t="n">
         <v>1</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="51">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="AE51" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF51" t="n">
         <v>2</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="52">
@@ -5652,10 +5652,10 @@
         </is>
       </c>
       <c r="AE52" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF52" t="n">
         <v>3</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="53">
@@ -5754,10 +5754,10 @@
         </is>
       </c>
       <c r="AE53" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF53" t="n">
         <v>4</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="54">
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="AE54" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF54" t="n">
         <v>5</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="55">
@@ -5940,10 +5940,10 @@
         </is>
       </c>
       <c r="AE55" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF55" t="n">
         <v>6</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="56">
@@ -6040,10 +6040,10 @@
         </is>
       </c>
       <c r="AE56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF56" t="n">
         <v>7</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="57">
@@ -6140,10 +6140,10 @@
         </is>
       </c>
       <c r="AE57" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF57" t="n">
         <v>8</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="58">
@@ -6242,10 +6242,10 @@
         </is>
       </c>
       <c r="AE58" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF58" t="n">
         <v>9</v>
-      </c>
-      <c r="AF58" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="59">
@@ -6344,10 +6344,10 @@
         </is>
       </c>
       <c r="AE59" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF59" t="n">
         <v>10</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="60">
@@ -6442,10 +6442,10 @@
         </is>
       </c>
       <c r="AE60" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF60" t="n">
         <v>11</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="61">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="AE61" t="n">
+        <v>2024</v>
+      </c>
+      <c r="AF61" t="n">
         <v>12</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>2024</v>
       </c>
     </row>
     <row r="62">
@@ -6646,10 +6646,10 @@
         </is>
       </c>
       <c r="AE62" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF62" t="n">
         <v>1</v>
-      </c>
-      <c r="AF62" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="63">
@@ -6748,10 +6748,10 @@
         </is>
       </c>
       <c r="AE63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF63" t="n">
         <v>2</v>
-      </c>
-      <c r="AF63" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="64">
@@ -6850,10 +6850,10 @@
         </is>
       </c>
       <c r="AE64" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF64" t="n">
         <v>3</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="65">
@@ -6952,10 +6952,10 @@
         </is>
       </c>
       <c r="AE65" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF65" t="n">
         <v>4</v>
-      </c>
-      <c r="AF65" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="66">
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="AE66" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF66" t="n">
         <v>5</v>
-      </c>
-      <c r="AF66" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="67">
@@ -7138,10 +7138,10 @@
         </is>
       </c>
       <c r="AE67" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF67" t="n">
         <v>6</v>
-      </c>
-      <c r="AF67" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="68">
@@ -7240,10 +7240,10 @@
         </is>
       </c>
       <c r="AE68" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF68" t="n">
         <v>7</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="69">
@@ -7342,10 +7342,10 @@
         </is>
       </c>
       <c r="AE69" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF69" t="n">
         <v>8</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="70">
@@ -7444,10 +7444,10 @@
         </is>
       </c>
       <c r="AE70" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF70" t="n">
         <v>9</v>
-      </c>
-      <c r="AF70" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="71">
@@ -7546,10 +7546,10 @@
         </is>
       </c>
       <c r="AE71" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF71" t="n">
         <v>10</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="72">
@@ -7648,10 +7648,10 @@
         </is>
       </c>
       <c r="AE72" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF72" t="n">
         <v>11</v>
-      </c>
-      <c r="AF72" t="n">
-        <v>2025</v>
       </c>
     </row>
     <row r="73">
@@ -7750,10 +7750,10 @@
         </is>
       </c>
       <c r="AE73" t="n">
+        <v>2025</v>
+      </c>
+      <c r="AF73" t="n">
         <v>12</v>
-      </c>
-      <c r="AF73" t="n">
-        <v>2025</v>
       </c>
     </row>
   </sheetData>
